--- a/training/P.xlsx
+++ b/training/P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,102 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.4719298245614035</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5216008771929825</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.556688596491228</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P0_P1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.3851973684210527</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4367324561403508</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3456140350877193</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P0_P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.4348684210526316</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4336622807017544</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3836622807017544</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P1_P0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4347587719298245</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6330043859649124</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5678728070175438</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P1_P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.3906798245614035</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5025219298245615</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4206140350877193</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P2_P0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3379385964912281</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6209429824561404</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5825657894736842</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P2_P1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/training/P.xlsx
+++ b/training/P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Resnet18</t>
+          <t>Resnet18_couple</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>ResNet18_VIT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Resnet34</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TASK</t>
         </is>
@@ -457,15 +462,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4719298245614035</v>
+        <v>0.9570175438596491</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5216008771929825</v>
+        <v>0.9796052631578946</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9508771929824562</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.556688596491228</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>P0_P1</t>
         </is>
@@ -473,15 +481,18 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3851973684210527</v>
+        <v>0.9953947368421053</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4367324561403508</v>
+        <v>0.9940789473684211</v>
       </c>
       <c r="C3" t="n">
+        <v>0.9947368421052631</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.3456140350877193</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>P0_P2</t>
         </is>
@@ -489,15 +500,18 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4348684210526316</v>
+        <v>0.9991228070175439</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4336622807017544</v>
+        <v>0.9925438596491227</v>
       </c>
       <c r="C4" t="n">
+        <v>0.9971491228070175</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.3836622807017544</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>P1_P0</t>
         </is>
@@ -505,15 +519,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4347587719298245</v>
+        <v>0.9945175438596492</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6330043859649124</v>
+        <v>0.9942982456140351</v>
       </c>
       <c r="C5" t="n">
+        <v>0.9929824561403509</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.5678728070175438</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>P1_P2</t>
         </is>
@@ -521,15 +538,18 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3906798245614035</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5025219298245615</v>
+        <v>0.9973684210526315</v>
       </c>
       <c r="C6" t="n">
+        <v>0.9995614035087719</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.4206140350877193</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>P2_P0</t>
         </is>
@@ -537,15 +557,18 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3379385964912281</v>
+        <v>0.9824561403508772</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6209429824561404</v>
+        <v>0.993859649122807</v>
       </c>
       <c r="C7" t="n">
+        <v>0.9771929824561404</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.5825657894736842</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>P2_P1</t>
         </is>

--- a/training/P.xlsx
+++ b/training/P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>LRSADTLM</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Resnet18_couple</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ResNet18_VIT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resnet34</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet34_couple</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet34_ViT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TASK</t>
         </is>
@@ -462,18 +472,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.9866228070175438</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.9570175438596491</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.9796052631578946</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.9508771929824562</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.556688596491228</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0.993421052631579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9486842105263158</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>P0_P1</t>
         </is>
@@ -481,18 +497,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.9945175438596492</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.9953947368421053</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.9940789473684211</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.9947368421052631</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.3456140350877193</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0.9949561403508771</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9951754385964913</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>P0_P2</t>
         </is>
@@ -500,18 +522,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.9956140350877194</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.9991228070175439</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.9925438596491227</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.9971491228070175</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.3836622807017544</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0.9925438596491227</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9991228070175439</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>P1_P0</t>
         </is>
@@ -519,18 +547,24 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.993421052631579</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.9945175438596492</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.9942982456140351</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.9929824561403509</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5678728070175438</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>0.9945175438596492</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9945175438596492</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>P1_P2</t>
         </is>
@@ -538,18 +572,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0.9956140350877194</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.9973684210526315</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.9995614035087719</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.4206140350877193</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0.9984649122807017</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9997807017543859</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>P2_P0</t>
         </is>
@@ -557,18 +597,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>0.993859649122807</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.9824561403508772</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.993859649122807</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.9771929824561404</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.5825657894736842</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>0.9710526315789474</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9697368421052632</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>P2_P1</t>
         </is>

--- a/training/P.xlsx
+++ b/training/P.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\Reinforcement-learning-with-tensorflow-master\contents\INet\training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8420C-52C5-4673-944F-D5DD5A3BADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1920" yWindow="1680" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>LRSADTLM</t>
+  </si>
+  <si>
+    <t>Resnet18_couple</t>
+  </si>
+  <si>
+    <t>ResNet18_VIT</t>
+  </si>
+  <si>
+    <t>Resnet34_couple</t>
+  </si>
+  <si>
+    <t>Resnet34_ViT</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>P0_P1</t>
+  </si>
+  <si>
+    <t>P0_P2</t>
+  </si>
+  <si>
+    <t>P1_P0</t>
+  </si>
+  <si>
+    <t>P1_P2</t>
+  </si>
+  <si>
+    <t>P2_P0</t>
+  </si>
+  <si>
+    <t>P2_P1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,207 +436,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CNN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LRSADTLM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Resnet18_couple</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ResNet18_VIT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Resnet34_couple</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Resnet34_ViT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TASK</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.9866228070175438</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9570175438596491</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9796052631578946</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9508771929824562</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.993421052631579</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0.98662280701754379</v>
+      </c>
+      <c r="B2">
+        <v>0.96776315789473677</v>
+      </c>
+      <c r="C2">
+        <v>0.97960526315789465</v>
+      </c>
+      <c r="D2">
+        <v>0.95087719298245621</v>
+      </c>
+      <c r="E2">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="F2">
         <v>0.9486842105263158</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>P0_P1</t>
-        </is>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.9945175438596492</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9953947368421053</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9940789473684211</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9947368421052631</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9949561403508771</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9951754385964913</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>P0_P2</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.99451754385964919</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99539473684210533</v>
+      </c>
+      <c r="C3">
+        <v>0.99407894736842106</v>
+      </c>
+      <c r="D3">
+        <v>0.99473684210526314</v>
+      </c>
+      <c r="E3">
+        <v>0.99495614035087709</v>
+      </c>
+      <c r="F3">
+        <v>0.99517543859649127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>0.9956140350877194</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.9991228070175439</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9925438596491227</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9971491228070175</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9925438596491227</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9991228070175439</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P1_P0</t>
-        </is>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.99254385964912273</v>
+      </c>
+      <c r="D4">
+        <v>0.99714912280701751</v>
+      </c>
+      <c r="E4">
+        <v>0.99254385964912273</v>
+      </c>
+      <c r="F4">
+        <v>0.99912280701754386</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.993421052631579</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9945175438596492</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9942982456140351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9929824561403509</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9945175438596492</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9945175438596492</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>P1_P2</t>
-        </is>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.99451754385964919</v>
+      </c>
+      <c r="C5">
+        <v>0.99429824561403513</v>
+      </c>
+      <c r="D5">
+        <v>0.99298245614035086</v>
+      </c>
+      <c r="E5">
+        <v>0.99451754385964919</v>
+      </c>
+      <c r="F5">
+        <v>0.99451754385964919</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>0.9956140350877194</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9973684210526315</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9995614035087719</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9984649122807017</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9997807017543859</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P2_P0</t>
-        </is>
+      <c r="C6">
+        <v>0.99736842105263146</v>
+      </c>
+      <c r="D6">
+        <v>0.99956140350877187</v>
+      </c>
+      <c r="E6">
+        <v>0.99846491228070167</v>
+      </c>
+      <c r="F6">
+        <v>0.99978070175438594</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>0.993859649122807</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.9824561403508772</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>0.99232456140350878</v>
+      </c>
+      <c r="C7">
         <v>0.993859649122807</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.9771929824561404</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9710526315789474</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9697368421052632</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P2_P1</t>
-        </is>
+      <c r="D7">
+        <v>0.97719298245614039</v>
+      </c>
+      <c r="E7">
+        <v>0.97105263157894739</v>
+      </c>
+      <c r="F7">
+        <v>0.96973684210526323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/training/P.xlsx
+++ b/training/P.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\Reinforcement-learning-with-tensorflow-master\contents\INet\training\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8420C-52C5-4673-944F-D5DD5A3BADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1680" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>LRSADTLM</t>
-  </si>
-  <si>
-    <t>Resnet18_couple</t>
-  </si>
-  <si>
-    <t>ResNet18_VIT</t>
-  </si>
-  <si>
-    <t>Resnet34_couple</t>
-  </si>
-  <si>
-    <t>Resnet34_ViT</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>P0_P1</t>
-  </si>
-  <si>
-    <t>P0_P2</t>
-  </si>
-  <si>
-    <t>P1_P0</t>
-  </si>
-  <si>
-    <t>P1_P2</t>
-  </si>
-  <si>
-    <t>P2_P0</t>
-  </si>
-  <si>
-    <t>P2_P1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,178 +420,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM0_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM1_0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM1_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM1_3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM_16</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM_CORAl</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM_JMKMMD</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LRSADTLM_mmd</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet18_ViT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Resnet34_ViT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TASK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9718375350140056</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9650140056022408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9714845938375349</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="F2" t="n">
+        <v>0.9622572815533982</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9652941176470587</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9633669467787115</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9633949579831931</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9692941176470589</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P0_P1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>0.98662280701754379</v>
-      </c>
-      <c r="B2">
-        <v>0.96776315789473677</v>
-      </c>
-      <c r="C2">
-        <v>0.97960526315789465</v>
-      </c>
-      <c r="D2">
-        <v>0.95087719298245621</v>
-      </c>
-      <c r="E2">
-        <v>0.99342105263157898</v>
-      </c>
-      <c r="F2">
-        <v>0.9486842105263158</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9864705882352942</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9841764705882353</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.988529411764706</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9691747572815534</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9860000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9661176470588236</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.982294117647059</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9833529411764704</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9821176470588237</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P0_P2</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.99451754385964919</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.99539473684210533</v>
-      </c>
-      <c r="C3">
-        <v>0.99407894736842106</v>
-      </c>
-      <c r="D3">
-        <v>0.99473684210526314</v>
-      </c>
-      <c r="E3">
-        <v>0.99495614035087709</v>
-      </c>
-      <c r="F3">
-        <v>0.99517543859649127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9131666666666668</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.976235294117647</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9588235294117646</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9871764705882352</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9532766990291262</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9645882352941177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9457927170868349</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9609411764705882</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9671764705882353</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9676470588235293</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>P1_P0</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.9956140350877194</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.99254385964912273</v>
-      </c>
-      <c r="D4">
-        <v>0.99714912280701751</v>
-      </c>
-      <c r="E4">
-        <v>0.99254385964912273</v>
-      </c>
-      <c r="F4">
-        <v>0.99912280701754386</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.9456666666666667</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9620588235294119</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9588823529411764</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9631764705882354</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9629854368932038</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.959235294117647</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9443529411764706</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9608235294117649</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9699411764705882</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9662352941176471</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P1_P2</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0.99342105263157898</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.99451754385964919</v>
-      </c>
-      <c r="C5">
-        <v>0.99429824561403513</v>
-      </c>
-      <c r="D5">
-        <v>0.99298245614035086</v>
-      </c>
-      <c r="E5">
-        <v>0.99451754385964919</v>
-      </c>
-      <c r="F5">
-        <v>0.99451754385964919</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.9218333333333334</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9941176470588236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9934117647058823</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9951764705882352</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.970752427184466</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9941176470588236</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9923529411764707</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9941176470588236</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9931176470588235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9913529411764707</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P2_P0</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0.9956140350877194</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.99736842105263146</v>
-      </c>
-      <c r="D6">
-        <v>0.99956140350877187</v>
-      </c>
-      <c r="E6">
-        <v>0.99846491228070167</v>
-      </c>
-      <c r="F6">
-        <v>0.99978070175438594</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>0.993859649122807</v>
-      </c>
-      <c r="B7">
-        <v>0.99232456140350878</v>
-      </c>
-      <c r="C7">
-        <v>0.993859649122807</v>
-      </c>
-      <c r="D7">
-        <v>0.97719298245614039</v>
-      </c>
-      <c r="E7">
-        <v>0.97105263157894739</v>
-      </c>
-      <c r="F7">
-        <v>0.96973684210526323</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9873333333333333</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9735882352941176</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9630588235294117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9768823529411765</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9503640776699029</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9606470588235293</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9390588235294116</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9730588235294115</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9754705882352941</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9753529411764706</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>P2_P1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>